--- a/VT_Model_ELC_V01.xlsx
+++ b/VT_Model_ELC_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{BD777B64-FD38-4D0A-98E8-E4DA9A1CD4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A23AEA6-30E4-489E-9A8C-0AD0B61D1F15}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E0BCB0-6D2B-4EE7-950E-50F723DCCAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="138" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="SEC_Processes" sheetId="127" r:id="rId4"/>
     <sheet name="PP" sheetId="129" r:id="rId5"/>
     <sheet name="RES" sheetId="133" r:id="rId6"/>
-    <sheet name="CHP" sheetId="132" r:id="rId7"/>
-    <sheet name="T&amp;D" sheetId="136" r:id="rId8"/>
-    <sheet name="EMI" sheetId="134" r:id="rId9"/>
-    <sheet name="SCHEM_ELC" sheetId="139" r:id="rId10"/>
+    <sheet name="IMP" sheetId="142" r:id="rId7"/>
+    <sheet name="STG" sheetId="141" r:id="rId8"/>
+    <sheet name="CHP" sheetId="132" r:id="rId9"/>
+    <sheet name="T&amp;D" sheetId="136" r:id="rId10"/>
+    <sheet name="EMI" sheetId="134" r:id="rId11"/>
+    <sheet name="SCHEM_ELC" sheetId="139" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Order1">0</definedName>
@@ -568,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="348">
   <si>
     <t>Typ jednostki wytwórczej</t>
   </si>
@@ -1611,6 +1613,129 @@
   <si>
     <t>No tag - won't be read by Veda</t>
   </si>
+  <si>
+    <t>HYDRO</t>
+  </si>
+  <si>
+    <t>Hydro Energy</t>
+  </si>
+  <si>
+    <t>ELE_EX_HYDRO</t>
+  </si>
+  <si>
+    <t>Existing Hydro Power Plants</t>
+  </si>
+  <si>
+    <t>Magazyny energii | Energy storage</t>
+  </si>
+  <si>
+    <t>Comm-OUT-A</t>
+  </si>
+  <si>
+    <t>S_EFF</t>
+  </si>
+  <si>
+    <t>Stock~2020</t>
+  </si>
+  <si>
+    <t>Stock~2025</t>
+  </si>
+  <si>
+    <t>Stock~2030</t>
+  </si>
+  <si>
+    <t>Stock~2035</t>
+  </si>
+  <si>
+    <t>Stock~2040</t>
+  </si>
+  <si>
+    <t>Stock~2045</t>
+  </si>
+  <si>
+    <t>Stock~2050</t>
+  </si>
+  <si>
+    <t>Cap2Act</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>LIFE</t>
+  </si>
+  <si>
+    <t>\I:</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>zl/kW</t>
+  </si>
+  <si>
+    <t>zl/GJ</t>
+  </si>
+  <si>
+    <t>STG_EX_PUMP</t>
+  </si>
+  <si>
+    <t>Existing Pumped Storage Capacity</t>
+  </si>
+  <si>
+    <t>CommGrp</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>NCAP_AFC~DAYNITE</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>IMP_ELC_HV</t>
+  </si>
+  <si>
+    <t>Import of Electricity</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>ACT_BND~2020</t>
+  </si>
+  <si>
+    <t>ACT_BND~2021</t>
+  </si>
+  <si>
+    <t>ACT_BND~2025</t>
+  </si>
+  <si>
+    <t>ACT_BND~2030</t>
+  </si>
+  <si>
+    <t>ACT_BND~2035</t>
+  </si>
+  <si>
+    <t>ACT_BND~2040</t>
+  </si>
+  <si>
+    <t>ACT_BND~2045</t>
+  </si>
+  <si>
+    <t>ACT_BND~2050</t>
+  </si>
+  <si>
+    <t>Stock~2020~2050</t>
+  </si>
 </sst>
 </file>
 
@@ -1624,7 +1749,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.000___)"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1745,12 +1870,6 @@
       <b/>
       <sz val="9"/>
       <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1891,6 +2010,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF010000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="22">
     <fill>
@@ -1961,12 +2100,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFC1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2019,8 +2152,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFC1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="102">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -3135,8 +3274,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -3144,151 +3312,156 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="99" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="98" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="63" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="97" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="96" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="93" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="95" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="87" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="94" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="99" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="98" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="63" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="97" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="96" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="93" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="95" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="87" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="94" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="5" borderId="87" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="93" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="93" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="43" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="92" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="77" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="91" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="69" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="90" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="60" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="43" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="92" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="77" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="91" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="69" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="90" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="60" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="89" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="88" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="87" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="89" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="88" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="87" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="86" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="85" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="84" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="83" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="82" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="81" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="80" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="79" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="78" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="77" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="86" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="85" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="84" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="83" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="82" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="81" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="80" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="79" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="78" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="77" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="76" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="75" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="74" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="73" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="72" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="70" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="69" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="76" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="75" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="74" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="73" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="72" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="71" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="70" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="69" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="67" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="66" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="68" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="67" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="66" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="65" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="64" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="63" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="62" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="61" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="60" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="58" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="57" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="56" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="56" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="55" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="31" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="54" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="65" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="64" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="63" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="62" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="61" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="60" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="58" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="57" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="56" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="56" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="55" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="31" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="54" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="53" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="52" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="51" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="50" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="49" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="48" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="47" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="46" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="45" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="43" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="44" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="5" borderId="43" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="42" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="41" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="40" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="39" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="37" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="53" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="52" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="51" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="50" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="49" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="48" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="47" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="46" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="45" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="43" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="44" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="5" borderId="43" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="42" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="41" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="40" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="39" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="37" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="38" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="37" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="36" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="35" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="36" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="35" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="34" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="33" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="31" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="33" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="31" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="31" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="31" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="30" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="30" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="5" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="29" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="28" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="27" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="30" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="5" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="28" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3300,31 +3473,31 @@
     <xf numFmtId="2" fontId="15" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="14" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="14" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="13" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="14" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="14" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="13" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3333,16 +3506,13 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3385,15 +3555,14 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3407,7 +3576,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3425,9 +3594,9 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="24" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3438,12 +3607,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3452,76 +3620,75 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="30" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="30" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="30" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3567,9 +3734,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="30" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3589,11 +3754,11 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3609,37 +3774,38 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="100" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="100" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3648,52 +3814,94 @@
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="102" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="102" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="103" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="104" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3702,30 +3910,34 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="16">
+    <cellStyle name="Normal - Style1 2 2 3" xfId="13" xr:uid="{6142E2CF-48F8-4F08-B4CD-C3158D1E903D}"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Normal 10 15 2" xfId="15" xr:uid="{8C3D6558-2A08-4BCF-A4B9-7E1BFBDEF52E}"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{A7260F85-B5B3-45B4-BDA7-1B7692316576}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Normal 39 2 2" xfId="14" xr:uid="{5CF8F1DB-FA48-4849-A03A-B06DC7171FD5}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Normal_MIN" xfId="11" xr:uid="{14BA00A1-61F7-4C83-8915-76626B343681}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
     <cellStyle name="Normalny 43" xfId="7" xr:uid="{25509E4F-049A-4BCD-9F3D-F29DF0A232D3}"/>
@@ -3733,6 +3945,7 @@
     <cellStyle name="Normalny_T206" xfId="10" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
     <cellStyle name="Per cent 2" xfId="6" xr:uid="{16AEAEF0-BCF7-4E92-A003-70F2F7EBC894}"/>
     <cellStyle name="Procentowy" xfId="8" builtinId="5"/>
+    <cellStyle name="Procentowy 2" xfId="12" xr:uid="{EBC2401B-9DE0-466C-A148-E7C32A578432}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5180,8 +5393,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="B2:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5199,55 +5412,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="185" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="187"/>
+      <c r="C2" s="185"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="203" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="206"/>
+      <c r="C4" s="203"/>
     </row>
     <row r="5" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="203" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="206"/>
+      <c r="C5" s="203"/>
     </row>
     <row r="6" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="297" t="s">
+      <c r="B6" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="300" t="s">
+      <c r="C6" s="318" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="209" t="s">
+      <c r="D6" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="209" t="s">
+      <c r="E6" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="209" t="s">
+      <c r="G6" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="209" t="s">
+      <c r="H6" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="209" t="s">
+      <c r="I6" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="210" t="s">
+      <c r="J6" s="207" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B7" s="298"/>
-      <c r="C7" s="301"/>
+      <c r="B7" s="316"/>
+      <c r="C7" s="319"/>
       <c r="D7" s="139" t="s">
         <v>216</v>
       </c>
@@ -5271,523 +5484,523 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="299"/>
-      <c r="C8" s="302"/>
-      <c r="D8" s="205" t="s">
+      <c r="B8" s="317"/>
+      <c r="C8" s="320"/>
+      <c r="D8" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="205" t="s">
+      <c r="E8" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="205" t="s">
+      <c r="F8" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="205" t="s">
+      <c r="G8" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="205" t="s">
+      <c r="H8" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="205" t="s">
+      <c r="I8" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="211" t="s">
+      <c r="J8" s="208" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="271" t="s">
+      <c r="C9" s="264" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="204">
+      <c r="D9" s="201">
         <v>17023.8</v>
       </c>
-      <c r="E9" s="204">
+      <c r="E9" s="201">
         <v>47860</v>
       </c>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204">
+      <c r="F9" s="201"/>
+      <c r="G9" s="201">
         <v>20996.9</v>
       </c>
-      <c r="H9" s="204">
+      <c r="H9" s="201">
         <v>21688.2</v>
       </c>
-      <c r="I9" s="204"/>
-      <c r="J9" s="213"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="210"/>
     </row>
     <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="271" t="s">
+      <c r="C10" s="264" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="204">
+      <c r="D10" s="201">
         <v>7391.2</v>
       </c>
-      <c r="E10" s="204">
+      <c r="E10" s="201">
         <v>34351.700000000004</v>
       </c>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204">
+      <c r="F10" s="201"/>
+      <c r="G10" s="201">
         <v>45266.6</v>
       </c>
-      <c r="H10" s="204">
+      <c r="H10" s="201">
         <v>7935.8</v>
       </c>
-      <c r="I10" s="204"/>
-      <c r="J10" s="213"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="210"/>
     </row>
     <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="271" t="s">
+      <c r="C11" s="264" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="204">
+      <c r="D11" s="201">
         <v>4094.6000000000022</v>
       </c>
-      <c r="E11" s="204">
+      <c r="E11" s="201">
         <v>16259.8</v>
       </c>
-      <c r="F11" s="204">
+      <c r="F11" s="201">
         <v>137017.29999999999</v>
       </c>
-      <c r="G11" s="204">
+      <c r="G11" s="201">
         <v>11204.8</v>
       </c>
-      <c r="H11" s="204">
+      <c r="H11" s="201">
         <v>21089.599999999999</v>
       </c>
-      <c r="I11" s="204"/>
-      <c r="J11" s="213"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="210"/>
     </row>
     <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="271" t="s">
+      <c r="C12" s="264" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="204">
+      <c r="D12" s="201">
         <v>1656.5</v>
       </c>
-      <c r="E12" s="204">
+      <c r="E12" s="201">
         <v>7464.6</v>
       </c>
-      <c r="F12" s="204">
+      <c r="F12" s="201">
         <v>17571.3</v>
       </c>
-      <c r="G12" s="204"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="204">
+      <c r="G12" s="201"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="201">
         <v>2109.5030000000002</v>
       </c>
-      <c r="J12" s="213">
+      <c r="J12" s="210">
         <v>32467</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="212" t="s">
+      <c r="B13" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="271" t="s">
+      <c r="C13" s="264" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="204">
+      <c r="D13" s="201">
         <v>6227.6934486274804</v>
       </c>
-      <c r="E13" s="204">
+      <c r="E13" s="201">
         <v>15623.048922000018</v>
       </c>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="213"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="210"/>
     </row>
     <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="271" t="s">
+      <c r="C14" s="264" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="204">
+      <c r="D14" s="201">
         <v>3954.96</v>
       </c>
-      <c r="E14" s="204">
+      <c r="E14" s="201">
         <v>1957.92</v>
       </c>
-      <c r="F14" s="204"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="213"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="210"/>
     </row>
     <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="214" t="s">
+      <c r="B15" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="272" t="s">
+      <c r="C15" s="265" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="226">
+      <c r="D15" s="223">
         <v>19.806000000000001</v>
       </c>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204">
+      <c r="E15" s="201"/>
+      <c r="F15" s="201">
         <v>81695</v>
       </c>
-      <c r="G15" s="204">
+      <c r="G15" s="201">
         <v>4227</v>
       </c>
-      <c r="H15" s="204">
+      <c r="H15" s="201">
         <v>22840</v>
       </c>
-      <c r="I15" s="204"/>
-      <c r="J15" s="213"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="210"/>
     </row>
     <row r="16" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="215" t="s">
+      <c r="B16" s="212" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="273" t="s">
+      <c r="C16" s="266" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="216"/>
-      <c r="E16" s="217">
+      <c r="D16" s="213"/>
+      <c r="E16" s="214">
         <f>SUM(E9:E15)</f>
         <v>123517.06892200003</v>
       </c>
-      <c r="F16" s="217">
+      <c r="F16" s="214">
         <f>SUM(F9:F15)</f>
         <v>236283.59999999998</v>
       </c>
-      <c r="G16" s="216"/>
-      <c r="H16" s="216"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="218"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="215"/>
     </row>
     <row r="17" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="208" t="s">
+      <c r="B17" s="205" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="208"/>
+      <c r="C17" s="205"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="208" t="s">
+      <c r="B18" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="208"/>
+      <c r="C18" s="205"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="278" t="s">
+      <c r="B19" s="271" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="208"/>
+      <c r="C19" s="205"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="208" t="s">
+      <c r="B20" s="205" t="s">
         <v>258</v>
       </c>
-      <c r="C20" s="208"/>
+      <c r="C20" s="205"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="206"/>
-      <c r="C21" s="206"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="206"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="206"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="206"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
     </row>
     <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="187" t="s">
+      <c r="B23" s="185" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="187"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="206"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="206" t="s">
+      <c r="B25" s="203" t="s">
         <v>239</v>
       </c>
-      <c r="C25" s="206"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
     </row>
     <row r="26" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="206" t="s">
+      <c r="B26" s="203" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="206"/>
-      <c r="D26" s="206"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="206"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
     </row>
     <row r="27" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="295" t="s">
+      <c r="B27" s="313" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="293" t="s">
+      <c r="C27" s="311" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="209" t="s">
+      <c r="D27" s="206" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="219" t="s">
+      <c r="E27" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="206"/>
+      <c r="F27" s="203"/>
     </row>
     <row r="28" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="296"/>
-      <c r="C28" s="294"/>
+      <c r="B28" s="314"/>
+      <c r="C28" s="312"/>
       <c r="D28" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="E28" s="277" t="s">
+      <c r="E28" s="270" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="206"/>
+      <c r="F28" s="203"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="220" t="s">
+      <c r="B29" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="274" t="s">
+      <c r="C29" s="267" t="s">
         <v>233</v>
       </c>
-      <c r="D29" s="205" t="s">
+      <c r="D29" s="202" t="s">
         <v>267</v>
       </c>
-      <c r="E29" s="221">
+      <c r="E29" s="218">
         <v>0.97706171756374371</v>
       </c>
-      <c r="F29" s="206"/>
+      <c r="F29" s="203"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="220" t="s">
+      <c r="B30" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="274" t="s">
+      <c r="C30" s="267" t="s">
         <v>233</v>
       </c>
-      <c r="D30" s="205" t="s">
+      <c r="D30" s="202" t="s">
         <v>298</v>
       </c>
-      <c r="E30" s="221">
+      <c r="E30" s="218">
         <v>0.9764416403645515</v>
       </c>
-      <c r="F30" s="206"/>
+      <c r="F30" s="203"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="220" t="s">
+      <c r="B31" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="274" t="s">
+      <c r="C31" s="267" t="s">
         <v>233</v>
       </c>
-      <c r="D31" s="205" t="s">
+      <c r="D31" s="202" t="s">
         <v>235</v>
       </c>
-      <c r="E31" s="221">
+      <c r="E31" s="218">
         <v>0.9515253427786764</v>
       </c>
-      <c r="F31" s="206"/>
-      <c r="G31" s="143"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="142"/>
     </row>
     <row r="32" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="222" t="s">
+      <c r="B32" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="275" t="s">
+      <c r="C32" s="268" t="s">
         <v>234</v>
       </c>
-      <c r="D32" s="223" t="s">
+      <c r="D32" s="220" t="s">
         <v>236</v>
       </c>
-      <c r="E32" s="224">
+      <c r="E32" s="221">
         <v>0.85899999999999999</v>
       </c>
-      <c r="F32" s="206"/>
+      <c r="F32" s="203"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="208" t="s">
+      <c r="B33" s="205" t="s">
         <v>229</v>
       </c>
-      <c r="C33" s="206"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="206"/>
-      <c r="O33" s="143"/>
-      <c r="P33" s="143"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="203"/>
+      <c r="O33" s="142"/>
+      <c r="P33" s="142"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="278" t="s">
+      <c r="B34" s="271" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="206"/>
-      <c r="D34" s="206"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="206"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="203"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="278" t="s">
+      <c r="B35" s="271" t="s">
         <v>257</v>
       </c>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="207"/>
-      <c r="F35" s="206"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="203"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="206"/>
-      <c r="C36" s="206"/>
-      <c r="D36" s="206"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="206"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="203"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="206"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="206"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="203"/>
     </row>
     <row r="38" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="187"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="206"/>
+      <c r="C38" s="185"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="203"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="206"/>
-      <c r="C39" s="206"/>
-      <c r="D39" s="206"/>
-      <c r="E39" s="207"/>
-      <c r="F39" s="206"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="203"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="206" t="s">
+      <c r="B40" s="203" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="206"/>
-      <c r="D40" s="206"/>
-      <c r="E40" s="207"/>
-      <c r="F40" s="206"/>
+      <c r="C40" s="203"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="203"/>
     </row>
     <row r="41" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="206" t="s">
+      <c r="B41" s="203" t="s">
         <v>240</v>
       </c>
-      <c r="C41" s="206"/>
-      <c r="D41" s="206"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="206"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="203"/>
     </row>
     <row r="42" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="295" t="s">
+      <c r="B42" s="313" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="293" t="s">
+      <c r="C42" s="311" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="225" t="s">
+      <c r="D42" s="222" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="210" t="s">
+      <c r="E42" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="206"/>
+      <c r="F42" s="203"/>
     </row>
     <row r="43" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="296"/>
-      <c r="C43" s="294"/>
+      <c r="B43" s="314"/>
+      <c r="C43" s="312"/>
       <c r="D43" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="276" t="s">
+      <c r="E43" s="269" t="s">
         <v>242</v>
       </c>
-      <c r="F43" s="206"/>
+      <c r="F43" s="203"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="220" t="s">
+      <c r="B44" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="274" t="s">
+      <c r="C44" s="267" t="s">
         <v>233</v>
       </c>
-      <c r="D44" s="205" t="s">
+      <c r="D44" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="221">
+      <c r="E44" s="218">
         <f>SUM(E9:E14)*E29/1000</f>
         <v>120.68379950936867</v>
       </c>
-      <c r="F44" s="206"/>
+      <c r="F44" s="203"/>
     </row>
     <row r="45" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="222" t="s">
+      <c r="B45" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="275" t="s">
+      <c r="C45" s="268" t="s">
         <v>234</v>
       </c>
-      <c r="D45" s="223" t="s">
+      <c r="D45" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="224">
+      <c r="E45" s="221">
         <f>SUM(F9:F15)*E32/1000</f>
         <v>202.96761239999998</v>
       </c>
-      <c r="F45" s="206"/>
+      <c r="F45" s="203"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="208" t="s">
+      <c r="B46" s="205" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="206"/>
-      <c r="D46" s="206"/>
-      <c r="E46" s="206"/>
-      <c r="F46" s="206"/>
+      <c r="C46" s="203"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="203"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="278" t="s">
+      <c r="B47" s="271" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="206"/>
-      <c r="D47" s="206"/>
-      <c r="E47" s="206"/>
-      <c r="F47" s="206"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="278" t="s">
+      <c r="B48" s="271" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="206"/>
-      <c r="C50" s="206"/>
+      <c r="B50" s="203"/>
+      <c r="C50" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5804,6 +6017,305 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Arkusz7"/>
+  <dimension ref="B2:I14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="53.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="257" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="160"/>
+      <c r="E2" s="145"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="150"/>
+      <c r="C3" s="144"/>
+      <c r="E3" s="145"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="155" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="153"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="261" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="261" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="261" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="261" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="261" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="164"/>
+    </row>
+    <row r="6" spans="2:9" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="138" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="138" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="31.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="272" t="str">
+        <f>SEC_Processes!D14</f>
+        <v>TRANSF_HV-LV</v>
+      </c>
+      <c r="C8" s="272" t="str">
+        <f>SEC_Processes!E14</f>
+        <v>Electricity Transformation and Distribution High Voltage to Low Voltage</v>
+      </c>
+      <c r="D8" s="272" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="E8" s="272" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELEC_LV</v>
+      </c>
+      <c r="F8" s="273">
+        <f>BALANCE!E29*BALANCE!E30*BALANCE!E31</f>
+        <v>0.90779680266244211</v>
+      </c>
+      <c r="H8" s="1">
+        <f>1-F8</f>
+        <v>9.2203197337557885E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="142"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Arkusz8"/>
+  <dimension ref="B2:H15"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="185" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="157"/>
+      <c r="C4" s="155" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="261" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="261" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="261" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="261" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="261" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="253" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="323" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="323"/>
+      <c r="F6" s="323"/>
+    </row>
+    <row r="7" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="324" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="166" t="str">
+        <f>SEC_Processes!D10</f>
+        <v>ELE_EX_HC</v>
+      </c>
+      <c r="C8" s="168" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="247">
+        <v>94.19</v>
+      </c>
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="187" t="str">
+        <f>SEC_Processes!D11</f>
+        <v>ELE_EX_BC</v>
+      </c>
+      <c r="C9" s="188" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248">
+        <v>109.08</v>
+      </c>
+      <c r="F9" s="248"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="166" t="str">
+        <f>SEC_Processes!D12</f>
+        <v>CHP_EX_HC</v>
+      </c>
+      <c r="C10" s="168" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="247">
+        <v>94.19</v>
+      </c>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="187" t="str">
+        <f>SEC_Processes!D13</f>
+        <v>CHP_EX_NAT-GAS</v>
+      </c>
+      <c r="C11" s="188" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="248">
+        <v>55.82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="171"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="250"/>
+      <c r="F12" s="250"/>
+      <c r="H12" s="142"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15965AD-C265-4BE6-9DA6-D03BC206A38C}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -5815,39 +6327,39 @@
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="115" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="115" customWidth="1"/>
     <col min="2" max="4" width="6.44140625" style="115" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="115" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="115" customWidth="1"/>
-    <col min="7" max="8" width="7.21875" style="115" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="115" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="115" customWidth="1"/>
+    <col min="7" max="8" width="7.33203125" style="115" customWidth="1"/>
     <col min="9" max="10" width="3.44140625" style="115" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" style="115" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="115" customWidth="1"/>
     <col min="12" max="12" width="12" style="115" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="115" customWidth="1"/>
-    <col min="14" max="16" width="7.21875" style="115" customWidth="1"/>
-    <col min="17" max="17" width="8.21875" style="115" customWidth="1"/>
-    <col min="18" max="18" width="12.21875" style="115" customWidth="1"/>
+    <col min="14" max="16" width="7.33203125" style="115" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="115" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="115" customWidth="1"/>
     <col min="19" max="19" width="7.44140625" style="115" customWidth="1"/>
-    <col min="20" max="21" width="7.21875" style="115" customWidth="1"/>
+    <col min="20" max="21" width="7.33203125" style="115" customWidth="1"/>
     <col min="22" max="22" width="5" style="115" customWidth="1"/>
-    <col min="23" max="23" width="7.21875" style="115" customWidth="1"/>
-    <col min="24" max="24" width="12.77734375" style="115" customWidth="1"/>
-    <col min="25" max="25" width="7.21875" style="115" customWidth="1"/>
+    <col min="23" max="23" width="7.33203125" style="115" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" style="115" customWidth="1"/>
+    <col min="25" max="25" width="7.33203125" style="115" customWidth="1"/>
     <col min="26" max="26" width="5.44140625" style="115" customWidth="1"/>
     <col min="27" max="27" width="6.44140625" style="115" customWidth="1"/>
     <col min="28" max="28" width="5.44140625" style="115" customWidth="1"/>
     <col min="29" max="29" width="7" style="115" customWidth="1"/>
     <col min="30" max="30" width="12" style="115" customWidth="1"/>
     <col min="31" max="31" width="7" style="115" customWidth="1"/>
-    <col min="32" max="32" width="5.77734375" style="115" customWidth="1"/>
+    <col min="32" max="32" width="5.6640625" style="115" customWidth="1"/>
     <col min="33" max="33" width="13" style="115" customWidth="1"/>
-    <col min="34" max="34" width="5.77734375" style="115" customWidth="1"/>
-    <col min="35" max="35" width="4.21875" style="115" customWidth="1"/>
-    <col min="36" max="36" width="12.77734375" style="115" customWidth="1"/>
-    <col min="37" max="38" width="4.21875" style="115" customWidth="1"/>
-    <col min="39" max="16384" width="9.21875" style="115"/>
+    <col min="34" max="34" width="5.6640625" style="115" customWidth="1"/>
+    <col min="35" max="35" width="4.33203125" style="115" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" style="115" customWidth="1"/>
+    <col min="37" max="38" width="4.33203125" style="115" customWidth="1"/>
+    <col min="39" max="16384" width="9.33203125" style="115"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:35" ht="18" x14ac:dyDescent="0.35">
@@ -6378,10 +6890,10 @@
       <c r="M23" s="115" t="s">
         <v>291</v>
       </c>
-      <c r="P23" s="311">
+      <c r="P23" s="329">
         <v>154125.60999999996</v>
       </c>
-      <c r="Q23" s="311"/>
+      <c r="Q23" s="329"/>
       <c r="R23" s="115" t="s">
         <v>7</v>
       </c>
@@ -6429,10 +6941,10 @@
       <c r="M24" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="P24" s="311">
+      <c r="P24" s="329">
         <v>142240.554</v>
       </c>
-      <c r="Q24" s="311"/>
+      <c r="Q24" s="329"/>
       <c r="R24" s="115" t="s">
         <v>7</v>
       </c>
@@ -6461,10 +6973,10 @@
       <c r="M25" s="115" t="s">
         <v>294</v>
       </c>
-      <c r="P25" s="311">
+      <c r="P25" s="329">
         <v>1075.1959999999999</v>
       </c>
-      <c r="Q25" s="311"/>
+      <c r="Q25" s="329"/>
       <c r="R25" s="115" t="s">
         <v>7</v>
       </c>
@@ -6510,10 +7022,10 @@
       <c r="M26" s="115" t="s">
         <v>296</v>
       </c>
-      <c r="P26" s="311">
+      <c r="P26" s="329">
         <v>1620.396</v>
       </c>
-      <c r="Q26" s="311"/>
+      <c r="Q26" s="329"/>
       <c r="R26" s="115" t="s">
         <v>7</v>
       </c>
@@ -6531,10 +7043,10 @@
       <c r="M27" s="115" t="s">
         <v>297</v>
       </c>
-      <c r="P27" s="312">
+      <c r="P27" s="330">
         <v>5.9623212521267233E-2</v>
       </c>
-      <c r="Q27" s="312"/>
+      <c r="Q27" s="330"/>
       <c r="Y27" s="58"/>
       <c r="AE27" s="19"/>
       <c r="AL27" s="60"/>
@@ -6704,10 +7216,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6726,62 +7238,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="261" t="s">
+      <c r="B2" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
     </row>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="163"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
     </row>
     <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="267" t="s">
+      <c r="B5" s="261" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="267" t="s">
+      <c r="C5" s="261" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="267" t="s">
+      <c r="D5" s="261" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="267" t="s">
+      <c r="E5" s="261" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="267" t="s">
+      <c r="F5" s="261" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="267" t="s">
+      <c r="G5" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="267" t="s">
+      <c r="H5" s="261" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="267" t="s">
+      <c r="I5" s="261" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6824,13 +7336,13 @@
       <c r="E7" s="137" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="268" t="s">
+      <c r="F7" s="262" t="s">
         <v>247</v>
       </c>
       <c r="G7" s="137" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="268" t="s">
+      <c r="H7" s="262" t="s">
         <v>248</v>
       </c>
       <c r="I7" s="137" t="s">
@@ -6838,310 +7350,324 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="234" t="s">
+      <c r="B8" s="230" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="235" t="s">
+      <c r="C8" s="231" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="235" t="s">
+      <c r="D8" s="231" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="234" t="s">
+      <c r="E8" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234" t="s">
+      <c r="F8" s="230"/>
+      <c r="G8" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="234" t="s">
+      <c r="H8" s="230" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="234" t="s">
+      <c r="I8" s="230" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="234" t="s">
+      <c r="B9" s="230" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="235" t="s">
+      <c r="C9" s="231" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="235" t="s">
+      <c r="D9" s="231" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="234" t="s">
+      <c r="E9" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234" t="s">
+      <c r="F9" s="230"/>
+      <c r="G9" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="234" t="s">
+      <c r="H9" s="230" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="234" t="s">
-        <v>52</v>
-      </c>
+      <c r="I9" s="230"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="236" t="s">
+      <c r="B10" s="232" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="237" t="s">
+      <c r="C10" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="237" t="s">
+      <c r="D10" s="233" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="236" t="s">
+      <c r="E10" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="236"/>
-      <c r="G10" s="236" t="s">
+      <c r="F10" s="232"/>
+      <c r="G10" s="232" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="236" t="s">
+      <c r="H10" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="236"/>
+      <c r="I10" s="232"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="235" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="313" t="s">
+      <c r="C11" s="275" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="313" t="s">
+      <c r="D11" s="275" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="313" t="s">
+      <c r="E11" s="275" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="313" t="s">
-        <v>52</v>
-      </c>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="275"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="238" t="s">
+      <c r="B12" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="238" t="s">
+      <c r="C12" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="257" t="s">
+      <c r="D12" s="251" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="238" t="s">
+      <c r="E12" s="234" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="238"/>
-      <c r="G12" s="238"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="238"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="234"/>
+      <c r="H12" s="234"/>
+      <c r="I12" s="234"/>
     </row>
     <row r="15" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B15" s="261" t="s">
+      <c r="B15" s="255" t="s">
         <v>305</v>
       </c>
-      <c r="C15" s="262"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
+      <c r="C15" s="256"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="162" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="292" t="s">
+      <c r="B18" s="274" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="292" t="s">
+      <c r="C18" s="274" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="292" t="s">
+      <c r="D18" s="274" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="292" t="s">
+      <c r="E18" s="274" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="292" t="s">
+      <c r="F18" s="274" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="292" t="s">
+      <c r="G18" s="274" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="292" t="s">
+      <c r="H18" s="274" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="292" t="s">
+      <c r="I18" s="274" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="172" t="s">
+      <c r="B19" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="284" t="s">
+      <c r="C19" s="277" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="172" t="s">
+      <c r="D19" s="170" t="s">
         <v>300</v>
       </c>
-      <c r="E19" s="285" t="s">
+      <c r="E19" s="278" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="286" t="s">
+      <c r="C20" s="279" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="199" t="s">
+      <c r="D20" s="196" t="s">
         <v>301</v>
       </c>
-      <c r="E20" s="287" t="s">
+      <c r="E20" s="280" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="198"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="198"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="195"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="284" t="s">
+      <c r="C21" s="277" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="172" t="s">
+      <c r="D21" s="170" t="s">
         <v>302</v>
       </c>
-      <c r="E21" s="285" t="s">
+      <c r="E21" s="278" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="199" t="s">
+      <c r="B22" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="286" t="s">
+      <c r="C22" s="279" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="199" t="s">
+      <c r="D22" s="196" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="240" t="s">
+      <c r="E22" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="198"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="198"/>
-    </row>
-    <row r="23" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="288" t="s">
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="289" t="s">
+      <c r="C23" s="277" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="288" t="s">
+      <c r="D23" s="170" t="s">
         <v>304</v>
       </c>
-      <c r="E23" s="290" t="s">
+      <c r="E23" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="291"/>
-      <c r="G23" s="291"/>
-      <c r="H23" s="291"/>
-      <c r="I23" s="291"/>
-    </row>
-    <row r="25" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="303" t="s">
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+    </row>
+    <row r="24" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="282" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="281" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="282" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" s="283" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="283"/>
+      <c r="G24" s="283"/>
+      <c r="H24" s="283"/>
+      <c r="I24" s="283"/>
+    </row>
+    <row r="26" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="321" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="303"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="260" t="s">
+      <c r="C26" s="321"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="254" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="260" t="s">
+      <c r="C27" s="254" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="124" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="124" t="s">
+      <c r="C28" s="124" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="122" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C29" s="122" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="124" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C30" s="124" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="118" t="s">
+    <row r="31" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="118" t="s">
+      <c r="C31" s="118" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7154,10 +7680,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Arkusz2"/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7167,69 +7693,69 @@
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="38.44140625" customWidth="1"/>
-    <col min="6" max="10" width="21.77734375" customWidth="1"/>
+    <col min="6" max="10" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="264"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="265" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="259" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="267" t="s">
+      <c r="B5" s="261" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="267" t="s">
+      <c r="C5" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="267" t="s">
+      <c r="D5" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="267" t="s">
+      <c r="E5" s="261" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="267" t="s">
+      <c r="F5" s="261" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="267" t="s">
+      <c r="G5" s="261" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="267" t="s">
+      <c r="H5" s="261" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="267" t="s">
+      <c r="I5" s="261" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="267" t="s">
+      <c r="J5" s="261" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7262,317 +7788,388 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="137" t="s">
+    <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="306" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="306" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="306" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="306" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="306" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G7" s="306" t="s">
         <v>196</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="H7" s="306" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="269" t="s">
+      <c r="I7" s="307" t="s">
         <v>253</v>
       </c>
-      <c r="J7" s="269" t="s">
+      <c r="J7" s="307" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="304" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="172" t="s">
+      <c r="D8" s="304" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="172" t="s">
+      <c r="E8" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="171" t="s">
+      <c r="F8" s="304" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="171" t="s">
+      <c r="G8" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="171" t="s">
+      <c r="H8" s="304" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
+      <c r="I8" s="304"/>
+      <c r="J8" s="304"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="240" t="s">
+      <c r="B9" s="305" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="198" t="s">
+      <c r="C9" s="305" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="305" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="199" t="s">
+      <c r="E9" s="305" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="198" t="s">
+      <c r="F9" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="198" t="s">
+      <c r="G9" s="305" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="198" t="s">
+      <c r="H9" s="305" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
+      <c r="I9" s="305"/>
+      <c r="J9" s="305"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="239" t="s">
+      <c r="B10" s="304" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="172" t="s">
+      <c r="D10" s="304" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="172" t="s">
+      <c r="E10" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="171" t="s">
+      <c r="F10" s="304" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="171" t="s">
+      <c r="G10" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="171" t="s">
+      <c r="H10" s="304" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
+      <c r="I10" s="304"/>
+      <c r="J10" s="304"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="240" t="s">
+      <c r="B11" s="305" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="305" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="199" t="s">
+      <c r="D11" s="305" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="199" t="s">
+      <c r="E11" s="305" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="198" t="s">
+      <c r="F11" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="198" t="s">
+      <c r="G11" s="305" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="198" t="s">
+      <c r="H11" s="305" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
+      <c r="I11" s="305"/>
+      <c r="J11" s="305"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="239" t="s">
+      <c r="B12" s="304" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="172" t="s">
+      <c r="D12" s="304" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="172" t="s">
+      <c r="E12" s="304" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="171" t="s">
+      <c r="F12" s="304" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="171" t="s">
+      <c r="G12" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="171" t="s">
+      <c r="H12" s="304" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
+      <c r="I12" s="304"/>
+      <c r="J12" s="304"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="240" t="s">
+      <c r="B13" s="305" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="198" t="s">
+      <c r="C13" s="305" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="199" t="s">
+      <c r="D13" s="305" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="199" t="s">
+      <c r="E13" s="305" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="198" t="s">
+      <c r="F13" s="305" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="198" t="s">
+      <c r="G13" s="305" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="198" t="s">
+      <c r="H13" s="305" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="198"/>
-      <c r="J13" s="198"/>
+      <c r="I13" s="305"/>
+      <c r="J13" s="305"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="279" t="s">
+      <c r="B14" s="304" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="280" t="s">
+      <c r="C14" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="281" t="s">
+      <c r="D14" s="304" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="281" t="s">
+      <c r="E14" s="304" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="280" t="s">
+      <c r="F14" s="304" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="280" t="s">
+      <c r="G14" s="304" t="s">
         <v>214</v>
       </c>
-      <c r="H14" s="280" t="s">
+      <c r="H14" s="304" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="280"/>
-      <c r="J14" s="280"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="142"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F16" s="304"/>
-      <c r="G16" s="304"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="305" t="s">
+      <c r="I14" s="304"/>
+      <c r="J14" s="304"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="305" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="305" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="305" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" s="305" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" s="305" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="305" t="s">
+        <v>214</v>
+      </c>
+      <c r="H15" s="305" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="305"/>
+      <c r="J15" s="305"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="305" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="305" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="305" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="305" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="305" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="305" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="305" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="305"/>
+      <c r="J16" s="305"/>
+    </row>
+    <row r="17" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="285" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="290" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="290" t="s">
+        <v>330</v>
+      </c>
+      <c r="E17" s="290" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" s="290" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="290" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="290" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="290"/>
+      <c r="J17" s="290"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F18" s="276"/>
+      <c r="G18" s="276"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="322" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="305"/>
-      <c r="D18" s="305"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="122" t="s">
+      <c r="C20" s="322"/>
+      <c r="D20" s="322"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C21" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="122"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="124" t="s">
+      <c r="D21" s="122"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C22" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="124"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="122" t="s">
+      <c r="D22" s="124"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C23" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="122"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="124" t="s">
+      <c r="D23" s="122"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C24" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="124"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="122" t="s">
+      <c r="D24" s="124"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C25" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D25" s="122" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="124" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C26" s="124" t="s">
         <v>113</v>
-      </c>
-      <c r="D24" s="124" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="122" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="124" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="124" t="s">
-        <v>119</v>
       </c>
       <c r="D26" s="124" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="118" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="122" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="124" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="118" t="s">
+      <c r="C29" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="118"/>
+      <c r="D29" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B18:D18"/>
+  <mergeCells count="1">
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7587,8 +8184,8 @@
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="B2:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7599,7 +8196,7 @@
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" customWidth="1"/>
@@ -7615,61 +8212,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="263" t="s">
+      <c r="B2" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="E2" s="146"/>
-      <c r="H2" s="149"/>
+      <c r="C2" s="185"/>
+      <c r="E2" s="145"/>
+      <c r="H2" s="148"/>
       <c r="I2" s="141"/>
       <c r="J2" s="141"/>
       <c r="K2" s="141"/>
       <c r="L2" s="141"/>
       <c r="M2" s="141"/>
       <c r="N2" s="141"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="148"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="151"/>
-      <c r="C3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="148"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="147"/>
     </row>
     <row r="4" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="156" t="s">
+      <c r="E4" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-    </row>
-    <row r="5" spans="2:30" s="144" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+    </row>
+    <row r="5" spans="2:30" s="143" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="136" t="s">
         <v>73</v>
       </c>
@@ -7747,15 +8344,15 @@
       <c r="G6" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="306" t="s">
+      <c r="H6" s="323" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="306"/>
-      <c r="J6" s="306"/>
-      <c r="K6" s="306"/>
-      <c r="L6" s="306"/>
-      <c r="M6" s="306"/>
-      <c r="N6" s="306"/>
+      <c r="I6" s="323"/>
+      <c r="J6" s="323"/>
+      <c r="K6" s="323"/>
+      <c r="L6" s="323"/>
+      <c r="M6" s="323"/>
+      <c r="N6" s="323"/>
       <c r="O6" s="138" t="s">
         <v>139</v>
       </c>
@@ -7771,8 +8368,8 @@
       <c r="S6" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="Y6" s="180"/>
-      <c r="Z6" s="143"/>
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="142"/>
     </row>
     <row r="7" spans="2:30" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
@@ -7793,15 +8390,15 @@
       <c r="G7" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="307" t="s">
+      <c r="H7" s="324" t="s">
         <v>197</v>
       </c>
-      <c r="I7" s="307"/>
-      <c r="J7" s="307"/>
-      <c r="K7" s="307"/>
-      <c r="L7" s="307"/>
-      <c r="M7" s="307"/>
-      <c r="N7" s="307"/>
+      <c r="I7" s="324"/>
+      <c r="J7" s="324"/>
+      <c r="K7" s="324"/>
+      <c r="L7" s="324"/>
+      <c r="M7" s="324"/>
+      <c r="N7" s="324"/>
       <c r="O7" s="137" t="s">
         <v>201</v>
       </c>
@@ -7817,180 +8414,180 @@
       <c r="S7" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="143"/>
+      <c r="Y7" s="178"/>
+      <c r="Z7" s="142"/>
     </row>
     <row r="8" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="167" t="str">
+      <c r="B8" s="166" t="str">
         <f>SEC_Processes!D10</f>
         <v>ELE_EX_HC</v>
       </c>
-      <c r="C8" s="167" t="str">
+      <c r="C8" s="166" t="str">
         <f>SEC_Processes!E10</f>
         <v>Existing Hard Coal Power Plants</v>
       </c>
-      <c r="D8" s="247" t="str">
+      <c r="D8" s="243" t="str">
         <f>SEC_Comm!C19</f>
         <v>HC</v>
       </c>
-      <c r="E8" s="247" t="str">
+      <c r="E8" s="243" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="241">
+      <c r="F8" s="237">
         <f>(BALANCE!E9*3.6/10^3)/(BALANCE!G9*BALANCE!H9/10^6)</f>
         <v>0.37835241091502259</v>
       </c>
-      <c r="G8" s="242">
+      <c r="G8" s="238">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="241">
+      <c r="H8" s="237">
         <f>BALANCE!D9/1000</f>
         <v>17.023799999999998</v>
       </c>
-      <c r="I8" s="241">
-        <v>13.973599999999999</v>
-      </c>
-      <c r="J8" s="241">
+      <c r="I8" s="237">
+        <v>16.973600000000001</v>
+      </c>
+      <c r="J8" s="237">
         <v>9.5486000000000004</v>
       </c>
-      <c r="K8" s="241">
+      <c r="K8" s="237">
         <v>7.5076000000000001</v>
       </c>
-      <c r="L8" s="241">
+      <c r="L8" s="237">
         <v>5.294999999999999</v>
       </c>
-      <c r="M8" s="241">
+      <c r="M8" s="237">
         <v>3.5409999999999995</v>
       </c>
-      <c r="N8" s="241">
+      <c r="N8" s="237">
         <v>0</v>
       </c>
-      <c r="O8" s="243">
+      <c r="O8" s="239">
         <v>1</v>
       </c>
-      <c r="P8" s="243">
+      <c r="P8" s="239">
         <f>ROUNDUP((BALANCE!E9/BALANCE!D9*1000/8760),2)</f>
         <v>0.33</v>
       </c>
-      <c r="Q8" s="242">
+      <c r="Q8" s="238">
         <f>P8*1.25</f>
         <v>0.41250000000000003</v>
       </c>
-      <c r="R8" s="243">
+      <c r="R8" s="239">
         <f>44*4.5</f>
         <v>198</v>
       </c>
-      <c r="S8" s="242">
+      <c r="S8" s="238">
         <f>3.4/3.6*4.5</f>
         <v>4.25</v>
       </c>
     </row>
     <row r="9" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="195" t="str">
+      <c r="B9" s="193" t="str">
         <f>SEC_Processes!D11</f>
         <v>ELE_EX_BC</v>
       </c>
-      <c r="C9" s="195" t="str">
+      <c r="C9" s="193" t="str">
         <f>SEC_Processes!E11</f>
         <v>Existing Brown Coal Power Plants</v>
       </c>
-      <c r="D9" s="258" t="str">
+      <c r="D9" s="252" t="str">
         <f>SEC_Comm!C20</f>
         <v>BC</v>
       </c>
-      <c r="E9" s="248" t="str">
+      <c r="E9" s="244" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="244">
+      <c r="F9" s="240">
         <f>(BALANCE!E10*3.6/10^3)/(BALANCE!G10*BALANCE!H10/10^6)</f>
         <v>0.34425649711369494</v>
       </c>
-      <c r="G9" s="245">
+      <c r="G9" s="241">
         <v>31.536000000000001</v>
       </c>
-      <c r="H9" s="244">
+      <c r="H9" s="240">
         <f>BALANCE!D10/1000</f>
         <v>7.3911999999999995</v>
       </c>
-      <c r="I9" s="244">
+      <c r="I9" s="240">
         <v>7.5307599999999999</v>
       </c>
-      <c r="J9" s="244">
+      <c r="J9" s="240">
         <v>7.1887599999999994</v>
       </c>
-      <c r="K9" s="244">
+      <c r="K9" s="240">
         <v>3.145</v>
       </c>
-      <c r="L9" s="244">
+      <c r="L9" s="240">
         <v>1.4890000000000001</v>
       </c>
-      <c r="M9" s="244">
+      <c r="M9" s="240">
         <v>0.89</v>
       </c>
-      <c r="N9" s="244">
+      <c r="N9" s="240">
         <v>0</v>
       </c>
-      <c r="O9" s="246">
+      <c r="O9" s="242">
         <v>1</v>
       </c>
-      <c r="P9" s="246">
+      <c r="P9" s="242">
         <f>ROUNDUP((BALANCE!E10/BALANCE!D10*1000/8760),2)</f>
         <v>0.54</v>
       </c>
-      <c r="Q9" s="245">
+      <c r="Q9" s="241">
         <f>P9*1.25</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="R9" s="246">
+      <c r="R9" s="242">
         <f>49*4.5</f>
         <v>220.5</v>
       </c>
-      <c r="S9" s="246">
+      <c r="S9" s="242">
         <f>3.2/3.6*4.5</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="257" t="s">
         <v>262</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="179"/>
-      <c r="Y13" s="179"/>
-      <c r="Z13" s="179"/>
-      <c r="AA13" s="179"/>
-      <c r="AB13" s="179"/>
-      <c r="AC13" s="179"/>
-      <c r="AD13" s="179"/>
+      <c r="C13" s="185"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="177"/>
+      <c r="Y13" s="177"/>
+      <c r="Z13" s="177"/>
+      <c r="AA13" s="177"/>
+      <c r="AB13" s="177"/>
+      <c r="AC13" s="177"/>
+      <c r="AD13" s="177"/>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
-      <c r="M14" s="174"/>
-      <c r="N14" s="174"/>
-      <c r="V14" s="180"/>
-      <c r="Y14" s="180"/>
-      <c r="Z14" s="180"/>
-      <c r="AA14" s="180"/>
-      <c r="AB14" s="180"/>
-      <c r="AC14" s="180"/>
-      <c r="AD14" s="180"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="V14" s="178"/>
+      <c r="Y14" s="178"/>
+      <c r="Z14" s="178"/>
+      <c r="AA14" s="178"/>
+      <c r="AB14" s="178"/>
+      <c r="AC14" s="178"/>
+      <c r="AD14" s="178"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="228"/>
-      <c r="Y15" s="181"/>
-      <c r="Z15" s="181"/>
-      <c r="AA15" s="182"/>
-      <c r="AB15" s="143"/>
-      <c r="AC15" s="143"/>
-      <c r="AD15" s="183"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="224"/>
+      <c r="Y15" s="179"/>
+      <c r="Z15" s="179"/>
+      <c r="AA15" s="180"/>
+      <c r="AB15" s="142"/>
+      <c r="AC15" s="142"/>
+      <c r="AD15" s="181"/>
     </row>
     <row r="16" spans="2:30" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="136" t="s">
@@ -8035,15 +8632,15 @@
       <c r="O16" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="V16" s="181"/>
-      <c r="Y16" s="181"/>
-      <c r="Z16" s="181"/>
-      <c r="AA16" s="182"/>
-      <c r="AB16" s="143"/>
-      <c r="AC16" s="143"/>
-      <c r="AD16" s="183"/>
-    </row>
-    <row r="17" spans="2:30" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="179"/>
+      <c r="Y16" s="179"/>
+      <c r="Z16" s="179"/>
+      <c r="AA16" s="180"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="142"/>
+      <c r="AD16" s="181"/>
+    </row>
+    <row r="17" spans="2:30" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="133" t="s">
         <v>133</v>
       </c>
@@ -8086,9 +8683,9 @@
       <c r="O17" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="Y17" s="181"/>
-      <c r="Z17" s="181"/>
-      <c r="AD17" s="184"/>
+      <c r="Y17" s="179"/>
+      <c r="Z17" s="179"/>
+      <c r="AD17" s="182"/>
     </row>
     <row r="18" spans="2:30" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="131" t="s">
@@ -8133,9 +8730,9 @@
       <c r="O18" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="Y18" s="181"/>
-      <c r="Z18" s="181"/>
-      <c r="AD18" s="184"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
+      <c r="AD18" s="182"/>
     </row>
     <row r="19" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="127" t="s">
@@ -8361,7 +8958,7 @@
   <dimension ref="B2:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8381,109 +8978,109 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="263" t="s">
+      <c r="B2" s="257" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="E2" s="146"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="148"/>
+      <c r="C2" s="160"/>
+      <c r="E2" s="145"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="208"/>
-      <c r="C3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="148"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="147"/>
     </row>
     <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="156" t="s">
+      <c r="E4" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-    </row>
-    <row r="5" spans="2:19" s="144" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="267" t="s">
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+    </row>
+    <row r="5" spans="2:19" s="143" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="267" t="s">
+      <c r="C5" s="261" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="267" t="s">
+      <c r="D5" s="261" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="267" t="s">
+      <c r="E5" s="261" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="267" t="s">
+      <c r="F5" s="261" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="267" t="s">
+      <c r="G5" s="261" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="270" t="s">
+      <c r="H5" s="263" t="s">
         <v>213</v>
       </c>
-      <c r="I5" s="270" t="s">
+      <c r="I5" s="263" t="s">
         <v>179</v>
       </c>
-      <c r="J5" s="270" t="s">
+      <c r="J5" s="263" t="s">
         <v>180</v>
       </c>
-      <c r="K5" s="270" t="s">
+      <c r="K5" s="263" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="270" t="s">
+      <c r="L5" s="263" t="s">
         <v>182</v>
       </c>
-      <c r="M5" s="270" t="s">
+      <c r="M5" s="263" t="s">
         <v>183</v>
       </c>
-      <c r="N5" s="270" t="s">
+      <c r="N5" s="263" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="267" t="s">
+      <c r="O5" s="261" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="267" t="s">
+      <c r="P5" s="261" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" s="267" t="s">
+      <c r="Q5" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="R5" s="267" t="s">
+      <c r="R5" s="261" t="s">
         <v>132</v>
       </c>
       <c r="S5"/>
@@ -8507,15 +9104,15 @@
       <c r="G6" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="306" t="s">
+      <c r="H6" s="323" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="306"/>
-      <c r="J6" s="306"/>
-      <c r="K6" s="306"/>
-      <c r="L6" s="306"/>
-      <c r="M6" s="306"/>
-      <c r="N6" s="306"/>
+      <c r="I6" s="323"/>
+      <c r="J6" s="323"/>
+      <c r="K6" s="323"/>
+      <c r="L6" s="323"/>
+      <c r="M6" s="323"/>
+      <c r="N6" s="323"/>
       <c r="O6" s="138" t="s">
         <v>139</v>
       </c>
@@ -8530,170 +9127,227 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="284" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="284" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="284" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="284" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G7" s="284" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="307" t="s">
+      <c r="H7" s="325" t="s">
         <v>197</v>
       </c>
-      <c r="I7" s="307"/>
-      <c r="J7" s="307"/>
-      <c r="K7" s="307"/>
-      <c r="L7" s="307"/>
-      <c r="M7" s="307"/>
-      <c r="N7" s="307"/>
-      <c r="O7" s="137" t="s">
+      <c r="I7" s="325"/>
+      <c r="J7" s="325"/>
+      <c r="K7" s="325"/>
+      <c r="L7" s="325"/>
+      <c r="M7" s="325"/>
+      <c r="N7" s="325"/>
+      <c r="O7" s="284" t="s">
         <v>201</v>
       </c>
-      <c r="P7" s="137" t="s">
+      <c r="P7" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="Q7" s="137" t="s">
+      <c r="Q7" s="284" t="s">
         <v>203</v>
       </c>
-      <c r="R7" s="137" t="s">
+      <c r="R7" s="284" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="166" t="str">
+      <c r="B8" s="286" t="str">
         <f>SEC_Processes!D8</f>
         <v>ELE_EX_WIND-ON</v>
       </c>
-      <c r="C8" s="167" t="str">
+      <c r="C8" s="287" t="str">
         <f>SEC_Processes!E8</f>
         <v>Existing Onshore Wind Turbines</v>
       </c>
-      <c r="D8" s="167" t="str">
+      <c r="D8" s="287" t="str">
         <f>SEC_Comm!C22</f>
         <v>WIND-ON</v>
       </c>
-      <c r="E8" s="167" t="str">
+      <c r="E8" s="287" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="169">
+      <c r="F8" s="291">
         <v>1</v>
       </c>
-      <c r="G8" s="167">
+      <c r="G8" s="287">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="169">
+      <c r="H8" s="288">
         <f>BALANCE!D13/1000</f>
         <v>6.2276934486274804</v>
       </c>
-      <c r="I8" s="169">
+      <c r="I8" s="288">
         <v>6.2982500000000003</v>
       </c>
-      <c r="J8" s="169">
+      <c r="J8" s="288">
         <v>5.8289999999999997</v>
       </c>
-      <c r="K8" s="169">
+      <c r="K8" s="288">
         <v>4.3650000000000002</v>
       </c>
-      <c r="L8" s="169">
+      <c r="L8" s="288">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="M8" s="169">
+      <c r="M8" s="288">
         <v>0</v>
       </c>
-      <c r="N8" s="169">
+      <c r="N8" s="288">
         <v>0</v>
       </c>
-      <c r="O8" s="249">
+      <c r="O8" s="289">
         <v>0.05</v>
       </c>
-      <c r="P8" s="249">
+      <c r="P8" s="289">
         <f>BALANCE!E13/BALANCE!D13*1000/8760+0.01</f>
         <v>0.29637457639806086</v>
       </c>
-      <c r="Q8" s="249">
+      <c r="Q8" s="289">
         <f>50*4.5</f>
         <v>225</v>
       </c>
-      <c r="R8" s="249">
+      <c r="R8" s="289">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="197" t="str">
+    <row r="9" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="124" t="str">
         <f>SEC_Processes!D9</f>
         <v>ELE_EX_PV</v>
       </c>
-      <c r="C9" s="197" t="str">
+      <c r="C9" s="124" t="str">
         <f>SEC_Processes!E9</f>
         <v>Existing Photovoltaics (all Types)</v>
       </c>
-      <c r="D9" s="197" t="str">
+      <c r="D9" s="124" t="str">
         <f>SEC_Comm!C23</f>
         <v>SOLAR</v>
       </c>
-      <c r="E9" s="197" t="str">
+      <c r="E9" s="124" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="227">
+      <c r="F9" s="292">
         <v>1</v>
       </c>
-      <c r="G9" s="197">
+      <c r="G9" s="124">
         <v>31.536000000000001</v>
       </c>
-      <c r="H9" s="227">
+      <c r="H9" s="123">
         <f>BALANCE!D14/1000</f>
         <v>3.9549600000000003</v>
       </c>
-      <c r="I9" s="227">
+      <c r="I9" s="123">
         <v>3.9549600000000003</v>
       </c>
-      <c r="J9" s="227">
+      <c r="J9" s="123">
         <v>3.9549600000000003</v>
       </c>
-      <c r="K9" s="227">
+      <c r="K9" s="123">
         <v>3.4839600000000002</v>
       </c>
-      <c r="L9" s="227">
+      <c r="L9" s="123">
         <v>2.197092</v>
       </c>
-      <c r="M9" s="227">
+      <c r="M9" s="123">
         <v>0.91022400000000003</v>
       </c>
-      <c r="N9" s="227">
+      <c r="N9" s="123">
         <v>0</v>
       </c>
-      <c r="O9" s="250">
+      <c r="O9" s="119">
         <v>0.05</v>
       </c>
-      <c r="P9" s="250">
+      <c r="P9" s="119">
         <v>1</v>
       </c>
-      <c r="Q9" s="250">
+      <c r="Q9" s="119">
         <f>16*4.5</f>
         <v>72</v>
       </c>
-      <c r="R9" s="250">
+      <c r="R9" s="119">
         <v>1E-3</v>
       </c>
     </row>
+    <row r="10" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="290" t="str">
+        <f>SEC_Processes!D15</f>
+        <v>ELE_EX_HYDRO</v>
+      </c>
+      <c r="C10" s="290" t="str">
+        <f>SEC_Processes!E15</f>
+        <v>Existing Hydro Power Plants</v>
+      </c>
+      <c r="D10" s="290" t="str">
+        <f>SEC_Comm!C24</f>
+        <v>HYDRO</v>
+      </c>
+      <c r="E10" s="290" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F10" s="293">
+        <v>1</v>
+      </c>
+      <c r="G10" s="285">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="H10" s="290">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="I10" s="290">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="J10" s="290">
+        <v>1.0566</v>
+      </c>
+      <c r="K10" s="290">
+        <v>1.0566</v>
+      </c>
+      <c r="L10" s="290">
+        <v>1.0566</v>
+      </c>
+      <c r="M10" s="290">
+        <v>1.0566</v>
+      </c>
+      <c r="N10" s="290">
+        <v>1.0566</v>
+      </c>
+      <c r="O10" s="290">
+        <v>0.9</v>
+      </c>
+      <c r="P10" s="290">
+        <v>0.4</v>
+      </c>
+      <c r="Q10" s="285">
+        <v>80</v>
+      </c>
+      <c r="R10" s="285">
+        <v>0</v>
+      </c>
+    </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="143"/>
+      <c r="B12" s="142"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I16" s="266"/>
+      <c r="I16" s="260"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8708,12 +9362,458 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10E190E-A840-421F-AF13-333F9C20228C}">
+  <dimension ref="A2:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="9.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="294" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D4" s="296" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+    </row>
+    <row r="5" spans="1:17" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="297" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="297" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="297" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="297" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="297" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="297" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="297" t="s">
+        <v>322</v>
+      </c>
+      <c r="I5" s="297" t="s">
+        <v>338</v>
+      </c>
+      <c r="J5" s="308" t="s">
+        <v>339</v>
+      </c>
+      <c r="K5" s="308" t="s">
+        <v>340</v>
+      </c>
+      <c r="L5" s="308" t="s">
+        <v>341</v>
+      </c>
+      <c r="M5" s="308" t="s">
+        <v>342</v>
+      </c>
+      <c r="N5" s="308" t="s">
+        <v>343</v>
+      </c>
+      <c r="O5" s="308" t="s">
+        <v>344</v>
+      </c>
+      <c r="P5" s="308" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q5" s="308" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="142"/>
+      <c r="B6" s="300" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="300"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="301"/>
+      <c r="G6" s="300" t="s">
+        <v>326</v>
+      </c>
+      <c r="H6" s="300" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" s="300" t="s">
+        <v>329</v>
+      </c>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="127" t="str">
+        <f>SEC_Processes!D16</f>
+        <v>IMP_ELC_HV</v>
+      </c>
+      <c r="C7" s="127" t="str">
+        <f>SEC_Processes!E16</f>
+        <v>Import of Electricity</v>
+      </c>
+      <c r="D7" s="127" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="E7" s="127">
+        <f>ROUND(J7/G7*1.2,1)</f>
+        <v>2.7</v>
+      </c>
+      <c r="F7" s="127">
+        <v>1</v>
+      </c>
+      <c r="G7" s="127">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="H7" s="125">
+        <v>1</v>
+      </c>
+      <c r="I7" s="310">
+        <f>120/0.3*1.25</f>
+        <v>500</v>
+      </c>
+      <c r="J7" s="127">
+        <f>20*3.6</f>
+        <v>72</v>
+      </c>
+      <c r="K7" s="127">
+        <f>20*3.6</f>
+        <v>72</v>
+      </c>
+      <c r="L7" s="127">
+        <v>0</v>
+      </c>
+      <c r="M7" s="127">
+        <v>0</v>
+      </c>
+      <c r="N7" s="127">
+        <v>0</v>
+      </c>
+      <c r="O7" s="127">
+        <v>0</v>
+      </c>
+      <c r="P7" s="127">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="302"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="302"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="302"/>
+      <c r="N8" s="302"/>
+      <c r="O8" s="302"/>
+      <c r="P8" s="302"/>
+      <c r="Q8" s="302"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="41" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FBB1A9-878C-4F20-9BAE-6F0780394F62}">
+  <dimension ref="A2:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="294" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E4" s="296" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="297" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="297" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="297" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="297" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="298" t="s">
+        <v>312</v>
+      </c>
+      <c r="G5" s="303" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="299" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" s="299" t="s">
+        <v>315</v>
+      </c>
+      <c r="J5" s="299" t="s">
+        <v>316</v>
+      </c>
+      <c r="K5" s="299" t="s">
+        <v>317</v>
+      </c>
+      <c r="L5" s="299" t="s">
+        <v>318</v>
+      </c>
+      <c r="M5" s="299" t="s">
+        <v>319</v>
+      </c>
+      <c r="N5" s="299" t="s">
+        <v>320</v>
+      </c>
+      <c r="O5" s="297" t="s">
+        <v>321</v>
+      </c>
+      <c r="P5" s="297" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q5" s="297" t="s">
+        <v>323</v>
+      </c>
+      <c r="R5" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5" s="297" t="s">
+        <v>132</v>
+      </c>
+      <c r="T5" s="308" t="s">
+        <v>332</v>
+      </c>
+      <c r="U5" s="309" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="142"/>
+      <c r="B6" s="300" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="300" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="300" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="300" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="300" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="300" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="300" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="300" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="300" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="300" t="s">
+        <v>326</v>
+      </c>
+      <c r="P6" s="300" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q6" s="300" t="s">
+        <v>327</v>
+      </c>
+      <c r="R6" s="300" t="s">
+        <v>328</v>
+      </c>
+      <c r="S6" s="300" t="s">
+        <v>329</v>
+      </c>
+      <c r="T6" s="300"/>
+      <c r="U6" s="300"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="127" t="str">
+        <f>SEC_Processes!D17</f>
+        <v>STG_EX_PUMP</v>
+      </c>
+      <c r="C7" s="127" t="str">
+        <f>SEC_Processes!E17</f>
+        <v>Existing Pumped Storage Capacity</v>
+      </c>
+      <c r="D7" s="127" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="E7" s="127" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F7" s="127"/>
+      <c r="G7" s="126">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="127">
+        <v>1.706</v>
+      </c>
+      <c r="I7" s="127">
+        <v>1.706</v>
+      </c>
+      <c r="J7" s="127">
+        <v>1.706</v>
+      </c>
+      <c r="K7" s="127">
+        <v>1.706</v>
+      </c>
+      <c r="L7" s="127">
+        <v>1.706</v>
+      </c>
+      <c r="M7" s="127">
+        <v>1.706</v>
+      </c>
+      <c r="N7" s="127">
+        <v>1.706</v>
+      </c>
+      <c r="O7" s="127">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="P7" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="127">
+        <v>200</v>
+      </c>
+      <c r="R7" s="127">
+        <v>80</v>
+      </c>
+      <c r="S7" s="127">
+        <v>1E-3</v>
+      </c>
+      <c r="T7" s="127" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="302"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="302"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="302"/>
+      <c r="N8" s="302"/>
+      <c r="O8" s="302"/>
+      <c r="P8" s="302"/>
+      <c r="Q8" s="302"/>
+      <c r="R8" s="302"/>
+      <c r="S8" s="302"/>
+      <c r="T8" s="302" t="s">
+        <v>333</v>
+      </c>
+      <c r="U8" s="302">
+        <f>6/24</f>
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Arkusz5"/>
   <dimension ref="B2:AH24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8747,118 +9847,118 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="263" t="s">
+      <c r="B2" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="E2" s="146"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
+      <c r="C2" s="160"/>
+      <c r="E2" s="145"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
     </row>
     <row r="3" spans="2:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="151"/>
-      <c r="C3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="148"/>
-      <c r="W3" s="187" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
+      <c r="W3" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="X3" s="187"/>
+      <c r="X3" s="185"/>
     </row>
     <row r="4" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="156" t="s">
+      <c r="E4" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="148"/>
-    </row>
-    <row r="5" spans="2:34" s="144" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="267" t="s">
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="147"/>
+    </row>
+    <row r="5" spans="2:34" s="143" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="267" t="s">
+      <c r="C5" s="261" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="267" t="s">
+      <c r="D5" s="261" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="267" t="s">
+      <c r="E5" s="261" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="267" t="s">
+      <c r="F5" s="261" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="267" t="s">
+      <c r="G5" s="261" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="267" t="s">
+      <c r="H5" s="261" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="267" t="s">
+      <c r="I5" s="261" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="267" t="s">
+      <c r="J5" s="261" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="267" t="s">
+      <c r="K5" s="261" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="270" t="s">
+      <c r="L5" s="263" t="s">
         <v>178</v>
       </c>
-      <c r="M5" s="270" t="s">
+      <c r="M5" s="263" t="s">
         <v>128</v>
       </c>
-      <c r="N5" s="267" t="s">
+      <c r="N5" s="261" t="s">
         <v>129</v>
       </c>
-      <c r="O5" s="267" t="s">
+      <c r="O5" s="261" t="s">
         <v>130</v>
       </c>
-      <c r="P5" s="267" t="s">
+      <c r="P5" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="Q5" s="267" t="s">
+      <c r="Q5" s="261" t="s">
         <v>132</v>
       </c>
-      <c r="R5" s="267"/>
+      <c r="R5" s="261"/>
       <c r="S5"/>
-      <c r="W5" s="200" t="s">
+      <c r="W5" s="197" t="s">
         <v>155</v>
       </c>
-      <c r="X5" s="201"/>
-      <c r="Y5" s="201"/>
-      <c r="Z5" s="201"/>
-      <c r="AA5" s="201"/>
-      <c r="AB5" s="200"/>
-      <c r="AC5" s="201"/>
-      <c r="AD5" s="201"/>
-      <c r="AE5" s="201"/>
-      <c r="AF5" s="202"/>
-      <c r="AG5" s="202"/>
-      <c r="AH5" s="201"/>
+      <c r="X5" s="198"/>
+      <c r="Y5" s="198"/>
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="198"/>
+      <c r="AE5" s="198"/>
+      <c r="AF5" s="199"/>
+      <c r="AG5" s="199"/>
+      <c r="AH5" s="198"/>
     </row>
     <row r="6" spans="2:34" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
@@ -8910,40 +10010,40 @@
         <v>142</v>
       </c>
       <c r="R6" s="138"/>
-      <c r="W6" s="203" t="s">
+      <c r="W6" s="200" t="s">
         <v>160</v>
       </c>
-      <c r="X6" s="203" t="s">
+      <c r="X6" s="200" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="203" t="s">
+      <c r="Y6" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="Z6" s="203" t="s">
+      <c r="Z6" s="200" t="s">
         <v>163</v>
       </c>
-      <c r="AA6" s="203" t="s">
+      <c r="AA6" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="AB6" s="203" t="s">
+      <c r="AB6" s="200" t="s">
         <v>164</v>
       </c>
-      <c r="AC6" s="203" t="s">
+      <c r="AC6" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="AD6" s="203" t="s">
+      <c r="AD6" s="200" t="s">
         <v>166</v>
       </c>
-      <c r="AE6" s="203" t="s">
+      <c r="AE6" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="AF6" s="203" t="s">
+      <c r="AF6" s="200" t="s">
         <v>168</v>
       </c>
-      <c r="AG6" s="203" t="s">
+      <c r="AG6" s="200" t="s">
         <v>169</v>
       </c>
-      <c r="AH6" s="203" t="s">
+      <c r="AH6" s="200" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8997,403 +10097,419 @@
         <v>204</v>
       </c>
       <c r="R7" s="137"/>
-      <c r="W7" s="203"/>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="203"/>
-      <c r="Z7" s="203"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="203"/>
-      <c r="AF7" s="203"/>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="200"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="200"/>
     </row>
     <row r="8" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="167" t="str">
+      <c r="B8" s="166" t="str">
         <f>SEC_Processes!D12</f>
         <v>CHP_EX_HC</v>
       </c>
-      <c r="C8" s="167" t="str">
+      <c r="C8" s="166" t="str">
         <f>SEC_Processes!E12</f>
         <v>Existing Hard Coal CHPs</v>
       </c>
-      <c r="D8" s="167" t="str">
+      <c r="D8" s="166" t="str">
         <f>SEC_Comm!C19</f>
         <v>HC</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="229">
+      <c r="E8" s="166"/>
+      <c r="F8" s="225">
         <f>(L8*K8*O8)/(BALANCE!G11*BALANCE!H11/10^6)</f>
         <v>0.24771097483306254</v>
       </c>
-      <c r="G8" s="230">
+      <c r="G8" s="226">
         <f>BALANCE!F11/(3.6*BALANCE!E11)</f>
         <v>2.3407644073796177</v>
       </c>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="231">
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="227">
         <v>31.536000000000001</v>
       </c>
-      <c r="L8" s="229">
+      <c r="L8" s="225">
         <f>BALANCE!D11/1000</f>
         <v>4.0946000000000025</v>
       </c>
-      <c r="M8" s="229">
+      <c r="M8" s="225">
         <v>0</v>
       </c>
-      <c r="N8" s="230">
+      <c r="N8" s="226">
         <v>1</v>
       </c>
-      <c r="O8" s="230">
+      <c r="O8" s="226">
         <f>BALANCE!E11/BALANCE!D11*1000/8760</f>
         <v>0.45331450019816694</v>
       </c>
-      <c r="P8" s="230">
+      <c r="P8" s="226">
         <f>48*4.5</f>
         <v>216</v>
       </c>
-      <c r="Q8" s="230">
+      <c r="Q8" s="226">
         <f>3.2/3.6*4.5</f>
         <v>4</v>
       </c>
-      <c r="R8" s="231"/>
-      <c r="U8" s="308" t="str">
+      <c r="R8" s="227"/>
+      <c r="U8" s="326" t="str">
         <f>SEC_Processes!D12</f>
         <v>CHP_EX_HC</v>
       </c>
-      <c r="V8" s="309" t="str">
+      <c r="V8" s="328" t="str">
         <f>SEC_Processes!E12</f>
         <v>Existing Hard Coal CHPs</v>
       </c>
-      <c r="W8" s="308">
+      <c r="W8" s="326">
         <f>L8*K8*O8</f>
         <v>58.53528</v>
       </c>
-      <c r="X8" s="308"/>
-      <c r="Y8" s="310">
+      <c r="X8" s="326"/>
+      <c r="Y8" s="327">
         <f>L8*K8*O8/3.6</f>
         <v>16.259799999999998</v>
       </c>
-      <c r="Z8" s="308">
+      <c r="Z8" s="326">
         <f>Y8*3.6</f>
         <v>58.535279999999993</v>
       </c>
-      <c r="AA8" s="308"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="310">
+      <c r="AA8" s="326"/>
+      <c r="AB8" s="326"/>
+      <c r="AC8" s="327">
         <f>Z8*G8</f>
         <v>137.01729999999998</v>
       </c>
-      <c r="AD8" s="308">
+      <c r="AD8" s="326">
         <f>Z8+AC8</f>
         <v>195.55257999999998</v>
       </c>
-      <c r="AE8" s="308">
+      <c r="AE8" s="326">
         <f>Z8/AC8</f>
         <v>0.42721087045212541</v>
       </c>
-      <c r="AF8" s="308">
+      <c r="AF8" s="326">
         <f>W8/F8</f>
         <v>236.30475007999996</v>
       </c>
-      <c r="AG8" s="308">
+      <c r="AG8" s="326">
         <f>AF8*10^6/(BALANCE!H11/1000)/1000</f>
         <v>11204.8</v>
       </c>
-      <c r="AH8" s="308">
+      <c r="AH8" s="326">
         <f>AD8/AF8</f>
         <v>0.82754400803960348</v>
       </c>
     </row>
     <row r="9" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="167" t="str">
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="166" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="252"/>
-      <c r="O9" s="252"/>
-      <c r="P9" s="252"/>
-      <c r="Q9" s="252"/>
-      <c r="R9" s="166"/>
-      <c r="U9" s="308"/>
-      <c r="V9" s="309"/>
-      <c r="W9" s="308"/>
-      <c r="X9" s="308"/>
-      <c r="Y9" s="310"/>
-      <c r="Z9" s="308"/>
-      <c r="AA9" s="308"/>
-      <c r="AB9" s="308"/>
-      <c r="AC9" s="310"/>
-      <c r="AD9" s="308"/>
-      <c r="AE9" s="308"/>
-      <c r="AF9" s="308"/>
-      <c r="AG9" s="308"/>
-      <c r="AH9" s="308"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="246"/>
+      <c r="P9" s="246"/>
+      <c r="Q9" s="246"/>
+      <c r="R9" s="165"/>
+      <c r="U9" s="326"/>
+      <c r="V9" s="328"/>
+      <c r="W9" s="326"/>
+      <c r="X9" s="326"/>
+      <c r="Y9" s="327"/>
+      <c r="Z9" s="326"/>
+      <c r="AA9" s="326"/>
+      <c r="AB9" s="326"/>
+      <c r="AC9" s="327"/>
+      <c r="AD9" s="326"/>
+      <c r="AE9" s="326"/>
+      <c r="AF9" s="326"/>
+      <c r="AG9" s="326"/>
+      <c r="AH9" s="326"/>
     </row>
     <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="167" t="str">
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166" t="str">
         <f>SEC_Comm!C10</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="252"/>
-      <c r="O10" s="252"/>
-      <c r="P10" s="252"/>
-      <c r="Q10" s="252"/>
-      <c r="R10" s="166"/>
-      <c r="U10" s="308"/>
-      <c r="V10" s="309"/>
-      <c r="W10" s="308"/>
-      <c r="X10" s="308"/>
-      <c r="Y10" s="310"/>
-      <c r="Z10" s="308"/>
-      <c r="AA10" s="308"/>
-      <c r="AB10" s="308"/>
-      <c r="AC10" s="310"/>
-      <c r="AD10" s="308"/>
-      <c r="AE10" s="308"/>
-      <c r="AF10" s="308"/>
-      <c r="AG10" s="308"/>
-      <c r="AH10" s="308"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="246"/>
+      <c r="O10" s="246"/>
+      <c r="P10" s="246"/>
+      <c r="Q10" s="246"/>
+      <c r="R10" s="165"/>
+      <c r="U10" s="326"/>
+      <c r="V10" s="328"/>
+      <c r="W10" s="326"/>
+      <c r="X10" s="326"/>
+      <c r="Y10" s="327"/>
+      <c r="Z10" s="326"/>
+      <c r="AA10" s="326"/>
+      <c r="AB10" s="326"/>
+      <c r="AC10" s="327"/>
+      <c r="AD10" s="326"/>
+      <c r="AE10" s="326"/>
+      <c r="AF10" s="326"/>
+      <c r="AG10" s="326"/>
+      <c r="AH10" s="326"/>
     </row>
     <row r="11" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="189" t="str">
+      <c r="B11" s="187" t="str">
         <f>SEC_Processes!D13</f>
         <v>CHP_EX_NAT-GAS</v>
       </c>
-      <c r="C11" s="189" t="str">
+      <c r="C11" s="187" t="str">
         <f>SEC_Processes!E13</f>
         <v>Existing Natural Gas CHPs</v>
       </c>
-      <c r="D11" s="189" t="str">
-        <f>SEC_Comm!C20</f>
-        <v>BC</v>
-      </c>
-      <c r="E11" s="189"/>
-      <c r="F11" s="233">
+      <c r="D11" s="187" t="str">
+        <f>SEC_Comm!C21</f>
+        <v>NAT-GAS</v>
+      </c>
+      <c r="E11" s="187"/>
+      <c r="F11" s="229">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G11" s="232"/>
-      <c r="H11" s="251">
+      <c r="G11" s="228"/>
+      <c r="H11" s="245">
         <v>0.2</v>
       </c>
-      <c r="I11" s="251">
+      <c r="I11" s="245">
         <v>0.7</v>
       </c>
-      <c r="J11" s="232">
+      <c r="J11" s="228">
         <v>0.25</v>
       </c>
-      <c r="K11" s="232">
+      <c r="K11" s="228">
         <v>31.536000000000001</v>
       </c>
-      <c r="L11" s="233">
+      <c r="L11" s="229">
         <f>BALANCE!D12/1000</f>
         <v>1.6565000000000001</v>
       </c>
-      <c r="M11" s="233">
+      <c r="M11" s="229">
         <f>L11</f>
         <v>1.6565000000000001</v>
       </c>
-      <c r="N11" s="251">
+      <c r="N11" s="245">
         <v>1</v>
       </c>
-      <c r="O11" s="251">
+      <c r="O11" s="245">
         <v>0.59850000000000003</v>
       </c>
-      <c r="P11" s="251">
+      <c r="P11" s="245">
         <v>97.199999999999989</v>
       </c>
-      <c r="Q11" s="251">
+      <c r="Q11" s="245">
         <v>2.6999999999999997</v>
       </c>
-      <c r="R11" s="232"/>
-      <c r="U11" s="308" t="str">
+      <c r="R11" s="228"/>
+      <c r="U11" s="326" t="str">
         <f>SEC_Processes!D13</f>
         <v>CHP_EX_NAT-GAS</v>
       </c>
-      <c r="V11" s="309" t="str">
+      <c r="V11" s="328" t="str">
         <f>SEC_Processes!E13</f>
         <v>Existing Natural Gas CHPs</v>
       </c>
-      <c r="W11" s="308">
+      <c r="W11" s="326">
         <f>L11*K11*O11</f>
         <v>31.265271324000008</v>
       </c>
-      <c r="X11" s="308">
+      <c r="X11" s="326">
         <f>L11*K11*O11/3.6</f>
         <v>8.6847975900000023</v>
       </c>
-      <c r="Y11" s="310">
+      <c r="Y11" s="327">
         <f>BALANCE!E12/1000</f>
         <v>7.4646000000000008</v>
       </c>
-      <c r="Z11" s="308">
+      <c r="Z11" s="326">
         <f>Y11*3.6</f>
         <v>26.872560000000004</v>
       </c>
-      <c r="AA11" s="308">
+      <c r="AA11" s="326">
         <f>X11-Y11</f>
         <v>1.2201975900000015</v>
       </c>
-      <c r="AB11" s="308">
+      <c r="AB11" s="326">
         <f>AA11*3.6</f>
         <v>4.3927113240000057</v>
       </c>
-      <c r="AC11" s="310">
+      <c r="AC11" s="327">
         <f>AB11/J11</f>
         <v>17.570845296000023</v>
       </c>
-      <c r="AD11" s="308">
+      <c r="AD11" s="326">
         <f>Z11+AC11</f>
         <v>44.443405296000023</v>
       </c>
-      <c r="AE11" s="308">
+      <c r="AE11" s="326">
         <f>Z11/AC11</f>
         <v>1.5293834501017149</v>
       </c>
-      <c r="AF11" s="308">
+      <c r="AF11" s="326">
         <f>W11/F11</f>
         <v>56.845947861818189</v>
       </c>
-      <c r="AG11" s="308">
+      <c r="AG11" s="326">
         <f>AF11*10^6/(BALANCE!J12/1000)/1000</f>
         <v>1750.8839086401019</v>
       </c>
-      <c r="AH11" s="308">
+      <c r="AH11" s="326">
         <f>AD11/AF11</f>
         <v>0.78182187064649855</v>
       </c>
     </row>
     <row r="12" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="191"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="189" t="str">
+      <c r="B12" s="189"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="187" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="191"/>
-      <c r="L12" s="193"/>
-      <c r="M12" s="193"/>
-      <c r="N12" s="191"/>
-      <c r="O12" s="191"/>
-      <c r="P12" s="191"/>
-      <c r="Q12" s="191"/>
-      <c r="R12" s="191"/>
-      <c r="U12" s="308"/>
-      <c r="V12" s="309"/>
-      <c r="W12" s="308"/>
-      <c r="X12" s="308"/>
-      <c r="Y12" s="310"/>
-      <c r="Z12" s="308"/>
-      <c r="AA12" s="308"/>
-      <c r="AB12" s="308"/>
-      <c r="AC12" s="310"/>
-      <c r="AD12" s="308"/>
-      <c r="AE12" s="308"/>
-      <c r="AF12" s="308"/>
-      <c r="AG12" s="308"/>
-      <c r="AH12" s="308"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="U12" s="326"/>
+      <c r="V12" s="328"/>
+      <c r="W12" s="326"/>
+      <c r="X12" s="326"/>
+      <c r="Y12" s="327"/>
+      <c r="Z12" s="326"/>
+      <c r="AA12" s="326"/>
+      <c r="AB12" s="326"/>
+      <c r="AC12" s="327"/>
+      <c r="AD12" s="326"/>
+      <c r="AE12" s="326"/>
+      <c r="AF12" s="326"/>
+      <c r="AG12" s="326"/>
+      <c r="AH12" s="326"/>
     </row>
     <row r="13" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="194"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="195" t="str">
+      <c r="B13" s="192"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="193" t="str">
         <f>SEC_Comm!C10</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="194"/>
-      <c r="O13" s="194"/>
-      <c r="P13" s="194"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="194"/>
-      <c r="U13" s="308"/>
-      <c r="V13" s="309"/>
-      <c r="W13" s="308"/>
-      <c r="X13" s="308"/>
-      <c r="Y13" s="310"/>
-      <c r="Z13" s="308"/>
-      <c r="AA13" s="308"/>
-      <c r="AB13" s="308"/>
-      <c r="AC13" s="310"/>
-      <c r="AD13" s="308"/>
-      <c r="AE13" s="308"/>
-      <c r="AF13" s="308"/>
-      <c r="AG13" s="308"/>
-      <c r="AH13" s="308"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="192"/>
+      <c r="N13" s="192"/>
+      <c r="O13" s="192"/>
+      <c r="P13" s="192"/>
+      <c r="Q13" s="192"/>
+      <c r="R13" s="192"/>
+      <c r="U13" s="326"/>
+      <c r="V13" s="328"/>
+      <c r="W13" s="326"/>
+      <c r="X13" s="326"/>
+      <c r="Y13" s="327"/>
+      <c r="Z13" s="326"/>
+      <c r="AA13" s="326"/>
+      <c r="AB13" s="326"/>
+      <c r="AC13" s="327"/>
+      <c r="AD13" s="326"/>
+      <c r="AE13" s="326"/>
+      <c r="AF13" s="326"/>
+      <c r="AG13" s="326"/>
+      <c r="AH13" s="326"/>
     </row>
     <row r="18" spans="29:34" x14ac:dyDescent="0.25">
-      <c r="AC18" s="143"/>
-      <c r="AD18" s="143"/>
-      <c r="AE18" s="143"/>
-      <c r="AF18" s="181"/>
-      <c r="AG18" s="181"/>
-      <c r="AH18" s="181"/>
+      <c r="AC18" s="142"/>
+      <c r="AD18" s="142"/>
+      <c r="AE18" s="142"/>
+      <c r="AF18" s="179"/>
+      <c r="AG18" s="179"/>
+      <c r="AH18" s="179"/>
     </row>
     <row r="19" spans="29:34" x14ac:dyDescent="0.25">
-      <c r="AC19" s="143"/>
-      <c r="AD19" s="143"/>
-      <c r="AE19" s="143"/>
-      <c r="AF19" s="181"/>
-      <c r="AG19" s="181"/>
-      <c r="AH19" s="181"/>
+      <c r="AC19" s="142"/>
+      <c r="AD19" s="142"/>
+      <c r="AE19" s="142"/>
+      <c r="AF19" s="179"/>
+      <c r="AG19" s="179"/>
+      <c r="AH19" s="179"/>
     </row>
     <row r="20" spans="29:34" x14ac:dyDescent="0.25">
-      <c r="AC20" s="143"/>
-      <c r="AD20" s="143"/>
-      <c r="AE20" s="143"/>
-      <c r="AH20" s="181"/>
+      <c r="AC20" s="142"/>
+      <c r="AD20" s="142"/>
+      <c r="AE20" s="142"/>
+      <c r="AH20" s="179"/>
     </row>
     <row r="21" spans="29:34" x14ac:dyDescent="0.25">
-      <c r="AD21" s="143"/>
-      <c r="AE21" s="143"/>
-      <c r="AG21" s="181"/>
-      <c r="AH21" s="181"/>
+      <c r="AD21" s="142"/>
+      <c r="AE21" s="142"/>
+      <c r="AG21" s="179"/>
+      <c r="AH21" s="179"/>
     </row>
     <row r="24" spans="29:34" x14ac:dyDescent="0.25">
-      <c r="AH24" s="186"/>
+      <c r="AH24" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AG11:AG13"/>
     <mergeCell ref="AD11:AD13"/>
     <mergeCell ref="AE11:AE13"/>
     <mergeCell ref="AF11:AF13"/>
@@ -9406,22 +10522,6 @@
     <mergeCell ref="AA11:AA13"/>
     <mergeCell ref="AB11:AB13"/>
     <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AG8:AG10"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -9434,326 +10534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Arkusz7"/>
-  <dimension ref="B2:I14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="66.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="53.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="263" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="E2" s="146"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="151"/>
-      <c r="C3" s="145"/>
-      <c r="E3" s="146"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="156" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="154"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="267" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="267" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="267" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="267" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="267" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="165"/>
-    </row>
-    <row r="6" spans="2:9" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="138" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="138" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="138" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="138" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="31.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="137" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="137" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="137" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="282" t="str">
-        <f>SEC_Processes!D14</f>
-        <v>TRANSF_HV-LV</v>
-      </c>
-      <c r="C8" s="282" t="str">
-        <f>SEC_Processes!E14</f>
-        <v>Electricity Transformation and Distribution High Voltage to Low Voltage</v>
-      </c>
-      <c r="D8" s="282" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="E8" s="282" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>ELEC_LV</v>
-      </c>
-      <c r="F8" s="283">
-        <f>BALANCE!E29*BALANCE!E30*BALANCE!E31</f>
-        <v>0.90779680266244211</v>
-      </c>
-      <c r="H8" s="1">
-        <f>1-F8</f>
-        <v>9.2203197337557885E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="143"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Arkusz8"/>
-  <dimension ref="B2:H15"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="187" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="158"/>
-      <c r="C4" s="156" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="267" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="267" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="267" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="267" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="267" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" s="259" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="138" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="306" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="306"/>
-      <c r="F6" s="306"/>
-    </row>
-    <row r="7" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="137" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="307" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="307"/>
-      <c r="F7" s="307"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="167" t="str">
-        <f>SEC_Processes!D10</f>
-        <v>ELE_EX_HC</v>
-      </c>
-      <c r="C8" s="170" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="253">
-        <v>94.19</v>
-      </c>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="189" t="str">
-        <f>SEC_Processes!D11</f>
-        <v>ELE_EX_BC</v>
-      </c>
-      <c r="C9" s="190" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254">
-        <v>109.08</v>
-      </c>
-      <c r="F9" s="254"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="167" t="str">
-        <f>SEC_Processes!D12</f>
-        <v>CHP_EX_HC</v>
-      </c>
-      <c r="C10" s="170" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="253">
-        <v>94.19</v>
-      </c>
-      <c r="E10" s="253"/>
-      <c r="F10" s="253"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="189" t="str">
-        <f>SEC_Processes!D13</f>
-        <v>CHP_EX_NAT-GAS</v>
-      </c>
-      <c r="C11" s="190" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="254"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="254">
-        <v>55.82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="173"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="H12" s="143"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -9948,28 +10729,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{030DA033-D444-418D-A770-EDC7577334E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9986,4 +10766,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>